--- a/input/NMNH_removed_duplicates.xlsx
+++ b/input/NMNH_removed_duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAFC4C2-3DA2-4C4F-8EB4-D240F69B2C2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07E9C34-310F-4498-8532-F4D82DB3DB6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>TPTdataset</t>
   </si>
@@ -133,6 +133,9 @@
     <t>NMNH</t>
   </si>
   <si>
+    <t>Polygenis (Polygenis)</t>
+  </si>
+  <si>
     <t>Animalia</t>
   </si>
   <si>
@@ -145,10 +148,34 @@
     <t>Siphonaptera</t>
   </si>
   <si>
+    <t>Rhopalopsyllidae</t>
+  </si>
+  <si>
+    <t>Polygenis</t>
+  </si>
+  <si>
     <t>Pygiopsylla</t>
   </si>
   <si>
     <t>Pygiopsyllidae</t>
+  </si>
+  <si>
+    <t>Dinopsyllus (Dinopsyllus)</t>
+  </si>
+  <si>
+    <t>Hystrichopsyllidae</t>
+  </si>
+  <si>
+    <t>Dinopsyllus</t>
+  </si>
+  <si>
+    <t>Pulex (Pulex)</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
+  </si>
+  <si>
+    <t>Pulex</t>
   </si>
 </sst>
 </file>
@@ -989,11 +1016,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1112,37 +1137,154 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>624</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1025</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>831</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
         <v>1046</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>41</v>
+      <c r="AJ5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ5">
+    <sortCondition ref="AJ2:AJ5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/NMNH_removed_duplicates.xlsx
+++ b/input/NMNH_removed_duplicates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07E9C34-310F-4498-8532-F4D82DB3DB6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9E3CCB53-A87F-48B5-9445-CDD9AF34049D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{65595BAD-142D-4B16-83B2-4BBDDCF50495}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E29F0A4-846C-47A6-B302-855F4C1EC590}"/>
   </bookViews>
   <sheets>
-    <sheet name="NMNH_review_duplicates" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="55">
   <si>
     <t>TPTdataset</t>
   </si>
@@ -133,56 +147,65 @@
     <t>NMNH</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Dinopsyllus (Dinopsyllus)</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Siphonaptera</t>
+  </si>
+  <si>
+    <t>Hystrichopsyllidae</t>
+  </si>
+  <si>
+    <t>Dinopsyllus</t>
+  </si>
+  <si>
     <t>Polygenis (Polygenis)</t>
   </si>
   <si>
-    <t>Animalia</t>
-  </si>
-  <si>
-    <t>Arthropoda</t>
-  </si>
-  <si>
-    <t>Insecta</t>
-  </si>
-  <si>
-    <t>Siphonaptera</t>
-  </si>
-  <si>
     <t>Rhopalopsyllidae</t>
   </si>
   <si>
     <t>Polygenis</t>
   </si>
   <si>
+    <t>Pulex (Pulex)</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
     <t>Pygiopsylla</t>
   </si>
   <si>
     <t>Pygiopsyllidae</t>
   </si>
   <si>
-    <t>Dinopsyllus (Dinopsyllus)</t>
-  </si>
-  <si>
-    <t>Hystrichopsyllidae</t>
-  </si>
-  <si>
-    <t>Dinopsyllus</t>
-  </si>
-  <si>
-    <t>Pulex (Pulex)</t>
-  </si>
-  <si>
-    <t>Pulicidae</t>
-  </si>
-  <si>
-    <t>Pulex</t>
+    <t>Nosopsyllus</t>
+  </si>
+  <si>
+    <t>Ceratophyllidae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,316 +213,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -507,204 +230,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,10 +549,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10571F3C-DC95-4875-8D9D-B9826005CB55}">
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1139,35 +675,107 @@
       <c r="B2">
         <v>624</v>
       </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
       </c>
       <c r="AB2" t="s">
         <v>24</v>
       </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -1177,35 +785,107 @@
       <c r="B3">
         <v>1025</v>
       </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
       <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
       </c>
       <c r="AB3" t="s">
         <v>24</v>
       </c>
+      <c r="AC3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -1215,35 +895,107 @@
       <c r="B4">
         <v>831</v>
       </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
       <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
         <v>49</v>
       </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>50</v>
       </c>
-      <c r="X4" t="s">
-        <v>51</v>
-      </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>37</v>
       </c>
       <c r="AB4" t="s">
         <v>24</v>
       </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -1253,38 +1005,220 @@
       <c r="B5">
         <v>1046</v>
       </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X5" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>37</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
       </c>
+      <c r="AC5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ5" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ5">
-    <sortCondition ref="AJ2:AJ5"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>